--- a/data/trans_orig/Q5417-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5417-Habitat-trans_orig.xlsx
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8147</v>
+        <v>7807</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01566524895986001</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05448164042390502</v>
+        <v>0.05220983539462134</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8275</v>
+        <v>7253</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00885555389822513</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0312841012975612</v>
+        <v>0.02742012477311053</v>
       </c>
     </row>
     <row r="5">
@@ -854,19 +854,19 @@
         <v>3628</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>923</v>
+        <v>946</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9204</v>
+        <v>8385</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03155000280146777</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.008024307159923222</v>
+        <v>0.008222608531064095</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08004526518518071</v>
+        <v>0.07291670247055961</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -875,19 +875,19 @@
         <v>3426</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9971</v>
+        <v>9067</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02290784769320679</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007531649332517967</v>
+        <v>0.007492886212618771</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06668327419988736</v>
+        <v>0.06063651507341646</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -896,19 +896,19 @@
         <v>7053</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2805</v>
+        <v>2988</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13835</v>
+        <v>14170</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02666459877411226</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01060517826906751</v>
+        <v>0.01129669081851459</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05230054227737882</v>
+        <v>0.05356887761207187</v>
       </c>
     </row>
     <row r="7">
@@ -925,19 +925,19 @@
         <v>111361</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>105785</v>
+        <v>106604</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>114066</v>
+        <v>114043</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9684499971985322</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9199547348148189</v>
+        <v>0.9270832975294404</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9919756928400767</v>
+        <v>0.991777391468936</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>146</v>
@@ -946,19 +946,19 @@
         <v>143767</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>136760</v>
+        <v>136617</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>147252</v>
+        <v>147257</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9614269033469333</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9145705689360057</v>
+        <v>0.9136128037535258</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9847306263823512</v>
+        <v>0.984764084741691</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>261</v>
@@ -967,19 +967,19 @@
         <v>255128</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>247078</v>
+        <v>246931</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>260391</v>
+        <v>260058</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9644798473276626</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9340462942987066</v>
+        <v>0.9334916987946428</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9843739852428419</v>
+        <v>0.9831152869397169</v>
       </c>
     </row>
     <row r="8">
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>1.549489913248474e-06</v>
+        <v>1.895764774388217e-06</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>8.610791551187367e-07</v>
+        <v>8.552188852795682e-07</v>
       </c>
     </row>
     <row r="10">
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4170</v>
+        <v>4399</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005950179693337494</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02858164245600139</v>
+        <v>0.03015199176973354</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7255</v>
+        <v>7071</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006699331925962025</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03971264028580676</v>
+        <v>0.03870954494294587</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7808</v>
+        <v>7571</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006366698194192999</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02376442103565846</v>
+        <v>0.02304204708777201</v>
       </c>
     </row>
     <row r="11">
@@ -1205,19 +1205,19 @@
         <v>3125</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0</v>
+        <v>1022</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8357</v>
+        <v>8404</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02142003172816066</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0</v>
+        <v>0.007006466363822042</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05728466004302477</v>
+        <v>0.05760816330860938</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -1226,19 +1226,19 @@
         <v>8881</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4077</v>
+        <v>4297</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16152</v>
+        <v>18763</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04861690102869615</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02231785434201252</v>
+        <v>0.02352335101597054</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08841594013306601</v>
+        <v>0.1027079331053188</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -1247,19 +1247,19 @@
         <v>12006</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6356</v>
+        <v>6123</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>20849</v>
+        <v>20354</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03654112292391987</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0193443700807445</v>
+        <v>0.0186364351135311</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06345319123817059</v>
+        <v>0.06194694608086303</v>
       </c>
     </row>
     <row r="12">
@@ -1276,19 +1276,19 @@
         <v>141896</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>137005</v>
+        <v>136676</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>144864</v>
+        <v>144853</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9726297885785018</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.939105164644693</v>
+        <v>0.9368486125952989</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9929747376652123</v>
+        <v>0.9928956987941326</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>160</v>
@@ -1297,19 +1297,19 @@
         <v>172575</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>164672</v>
+        <v>163700</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>177774</v>
+        <v>177518</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.944683463208748</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9014221751566952</v>
+        <v>0.8961010011127383</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9731460184466694</v>
+        <v>0.9717434654502594</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>302</v>
@@ -1318,19 +1318,19 @@
         <v>314470</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>304672</v>
+        <v>305254</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>320603</v>
+        <v>321039</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9570920099528537</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9272715457188937</v>
+        <v>0.9290421856030296</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9757598445493065</v>
+        <v>0.9770853909329119</v>
       </c>
     </row>
     <row r="13">
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4180</v>
+        <v>4124</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.006604017859950884</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.03076898432070236</v>
+        <v>0.03035559910791422</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5257</v>
+        <v>4515</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0037347074516394</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02188471164309635</v>
+        <v>0.01879603550634255</v>
       </c>
     </row>
     <row r="16">
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4821</v>
+        <v>4891</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009255300768845396</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04619540252389977</v>
+        <v>0.046865428522082</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1553,19 +1553,19 @@
         <v>7646</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3172</v>
+        <v>3281</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13888</v>
+        <v>14245</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05628346516833336</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02335171636922431</v>
+        <v>0.0241525474463967</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1022294445759403</v>
+        <v>0.104857972084418</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1574,19 +1574,19 @@
         <v>8612</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3841</v>
+        <v>4165</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15782</v>
+        <v>17055</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03585069159672494</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01598908324716337</v>
+        <v>0.01733661641134276</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06569927223585788</v>
+        <v>0.07099659689833354</v>
       </c>
     </row>
     <row r="17">
@@ -1603,7 +1603,7 @@
         <v>103405</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>99550</v>
+        <v>99480</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>104371</v>
@@ -1612,7 +1612,7 @@
         <v>0.9907446992311546</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9538045974761004</v>
+        <v>0.9531345714779181</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1624,19 +1624,19 @@
         <v>127307</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>120938</v>
+        <v>119886</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>132442</v>
+        <v>131749</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9371125169717157</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8902300328099356</v>
+        <v>0.8824849330953706</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9749122281954843</v>
+        <v>0.9698127195732221</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>233</v>
@@ -1645,19 +1645,19 @@
         <v>230712</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>223610</v>
+        <v>222193</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>235951</v>
+        <v>235638</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9604146009516357</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9308506679291136</v>
+        <v>0.92495307547382</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9822248096560854</v>
+        <v>0.9809220138456948</v>
       </c>
     </row>
     <row r="18">
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4587</v>
+        <v>5231</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.006110045474705776</v>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03342755153683204</v>
+        <v>0.0381205609407777</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6807</v>
+        <v>6473</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.009550749201669553</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03260254960015112</v>
+        <v>0.03100629661594001</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -1791,19 +1791,19 @@
         <v>2832</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7751</v>
+        <v>8106</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.00818620729333008</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002432241284389534</v>
+        <v>0.002418003270098184</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02240124167979661</v>
+        <v>0.02342774337912753</v>
       </c>
     </row>
     <row r="20">
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4198</v>
+        <v>4530</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0060535719712034</v>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03059257074281759</v>
+        <v>0.03301533436588931</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1841,19 +1841,19 @@
         <v>3211</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8866</v>
+        <v>9138</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01537884650067099</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004412568878393008</v>
+        <v>0.004382242862558614</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04246517282968858</v>
+        <v>0.04377047531973614</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -1862,19 +1862,19 @@
         <v>4041</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>929</v>
+        <v>1115</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10006</v>
+        <v>10370</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01168055425815407</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0026856152244616</v>
+        <v>0.003223381405194506</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02891825984789319</v>
+        <v>0.02997255881920632</v>
       </c>
     </row>
     <row r="21">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5724</v>
+        <v>5024</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01195302921832015</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04171154336979511</v>
+        <v>0.03661155948789065</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -1912,19 +1912,19 @@
         <v>4162</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1166</v>
+        <v>1151</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11023</v>
+        <v>10619</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01993410382009127</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.00558669177571669</v>
+        <v>0.005512577102386639</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05279793299285988</v>
+        <v>0.05086471371986871</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>6</v>
@@ -1933,19 +1933,19 @@
         <v>5802</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2090</v>
+        <v>2063</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>13010</v>
+        <v>12148</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01676890517704777</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.006039108311939111</v>
+        <v>0.005961101668404166</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03760041242392365</v>
+        <v>0.03511157329603101</v>
       </c>
     </row>
     <row r="22">
@@ -1962,19 +1962,19 @@
         <v>133908</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>129651</v>
+        <v>129522</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>136396</v>
+        <v>136387</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9758833533357707</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9448634216657869</v>
+        <v>0.9439197577528613</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.994015996414906</v>
+        <v>0.9939484331466623</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>191</v>
@@ -1983,19 +1983,19 @@
         <v>199410</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>191399</v>
+        <v>191587</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>203899</v>
+        <v>204590</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9551363004775681</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9167624385894286</v>
+        <v>0.917664689336364</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.976633652748457</v>
+        <v>0.9799471387275152</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>343</v>
@@ -2004,19 +2004,19 @@
         <v>333319</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>325245</v>
+        <v>325823</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>338670</v>
+        <v>338944</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9633643332714681</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.940029349737133</v>
+        <v>0.9416997295764913</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9788297652951273</v>
+        <v>0.9796221514881228</v>
       </c>
     </row>
     <row r="23">
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4695</v>
+        <v>4237</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.001668579154169476</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.009344603514075659</v>
+        <v>0.008432470631009444</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -2129,19 +2129,19 @@
         <v>4337</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1129</v>
+        <v>1141</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9957</v>
+        <v>10075</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.006407026651411883</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.001668622853569762</v>
+        <v>0.001685823224902118</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01471044688942647</v>
+        <v>0.01488490825659916</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -2150,19 +2150,19 @@
         <v>5175</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11371</v>
+        <v>11760</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.004388123380015286</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.001689089994425212</v>
+        <v>0.001692390995744189</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.009642326079977693</v>
+        <v>0.009971851427789231</v>
       </c>
     </row>
     <row r="25">
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5877</v>
+        <v>5905</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.003380765256974488</v>
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01169624946007014</v>
+        <v>0.01175291779758217</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -2200,19 +2200,19 @@
         <v>5332</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2032</v>
+        <v>2023</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12684</v>
+        <v>11392</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.007877377073954089</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.003001841322855569</v>
+        <v>0.002989090486654244</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0187398506545706</v>
+        <v>0.01683048000416131</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7</v>
@@ -2221,19 +2221,19 @@
         <v>7030</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2445</v>
+        <v>2934</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>13324</v>
+        <v>13642</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.005961512370845342</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002073052520178705</v>
+        <v>0.00248796111468254</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01129834850322527</v>
+        <v>0.01156779354078522</v>
       </c>
     </row>
     <row r="26">
@@ -2250,19 +2250,19 @@
         <v>9359</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4506</v>
+        <v>4855</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>16799</v>
+        <v>16290</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01862611624121252</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008968418596493442</v>
+        <v>0.009662428793049242</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03343407039251179</v>
+        <v>0.03242030084849307</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>22</v>
@@ -2271,19 +2271,19 @@
         <v>24115</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>15575</v>
+        <v>16660</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>36953</v>
+        <v>37971</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03562829941696736</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02301165814437675</v>
+        <v>0.0246138834056394</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05459691560955719</v>
+        <v>0.05610035005067113</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>32</v>
@@ -2292,19 +2292,19 @@
         <v>33474</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>22832</v>
+        <v>22421</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>46121</v>
+        <v>45874</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02838420454108409</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01936043616511618</v>
+        <v>0.01901213776249104</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03910836202986209</v>
+        <v>0.038898977451055</v>
       </c>
     </row>
     <row r="27">
@@ -2321,19 +2321,19 @@
         <v>490570</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>481229</v>
+        <v>482300</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>495686</v>
+        <v>495536</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9763245393476435</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9577343983718604</v>
+        <v>0.9598663856128822</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9865065296879423</v>
+        <v>0.9862081256911133</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>629</v>
@@ -2342,19 +2342,19 @@
         <v>643059</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>629130</v>
+        <v>630344</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>652924</v>
+        <v>652980</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9500872968576667</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9295083745422777</v>
+        <v>0.9313019562616337</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9646623070047892</v>
+        <v>0.9647453434557319</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1139</v>
@@ -2363,19 +2363,19 @@
         <v>1133629</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1117859</v>
+        <v>1118670</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1146286</v>
+        <v>1145320</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9612661597080553</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9478936263779182</v>
+        <v>0.9485816744486584</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.971999235112153</v>
+        <v>0.9711793290025968</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6443</v>
+        <v>4885</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007657061782223145</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04617143700331271</v>
+        <v>0.03500599204248106</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5737</v>
+        <v>5770</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006333209191737944</v>
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03439739554823281</v>
+        <v>0.03459687628311818</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6390</v>
+        <v>7372</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006936276854801184</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02086106852523906</v>
+        <v>0.02406650441332064</v>
       </c>
     </row>
     <row r="5">
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8124</v>
+        <v>6294</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01493432679603941</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05821477837397279</v>
+        <v>0.04510205624926206</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -2799,19 +2799,19 @@
         <v>4413</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10711</v>
+        <v>10827</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02646040888852847</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.006774218939016309</v>
+        <v>0.006735724372161409</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06421984836143269</v>
+        <v>0.06491725320962327</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -2820,19 +2820,19 @@
         <v>6497</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2215</v>
+        <v>3102</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13303</v>
+        <v>13128</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02120981872331617</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.007231110511724424</v>
+        <v>0.01012519689825991</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04342632985291656</v>
+        <v>0.04285372749682445</v>
       </c>
     </row>
     <row r="6">
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7599</v>
+        <v>7218</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0147317767714496</v>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05445168298820074</v>
+        <v>0.05172113536492356</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -2870,19 +2870,19 @@
         <v>6448</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3144</v>
+        <v>2220</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13098</v>
+        <v>13026</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0386603166477978</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01885056307986572</v>
+        <v>0.01330745405949108</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07853275071110202</v>
+        <v>0.07809689788550696</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -2891,19 +2891,19 @@
         <v>8504</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3346</v>
+        <v>4130</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>16055</v>
+        <v>15972</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02775991223158107</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01092354107514531</v>
+        <v>0.01348214515841029</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05241157701162791</v>
+        <v>0.05213759632860031</v>
       </c>
     </row>
     <row r="7">
@@ -2920,19 +2920,19 @@
         <v>134339</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>127759</v>
+        <v>128985</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>137505</v>
+        <v>137607</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9626768346502879</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9155277818752378</v>
+        <v>0.9243123130072183</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9853684196675446</v>
+        <v>0.9860949346540645</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>146</v>
@@ -2941,19 +2941,19 @@
         <v>154869</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>146239</v>
+        <v>146704</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>160417</v>
+        <v>160435</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9285460652719357</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8767987710273704</v>
+        <v>0.879587079496039</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9618097855864264</v>
+        <v>0.9619137638128554</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>270</v>
@@ -2962,19 +2962,19 @@
         <v>289208</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>279465</v>
+        <v>278446</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>295982</v>
+        <v>296219</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9440939921903015</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9122885862919921</v>
+        <v>0.9089623249338241</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9662075662260906</v>
+        <v>0.966979397038208</v>
       </c>
     </row>
     <row r="8">
@@ -3066,19 +3066,19 @@
         <v>4126</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1044</v>
+        <v>1056</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9353</v>
+        <v>11070</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02664130823626216</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.006742328326929573</v>
+        <v>0.00682082116615595</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06039078398205026</v>
+        <v>0.07147484543099285</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -3087,19 +3087,19 @@
         <v>5649</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2182</v>
+        <v>2212</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12393</v>
+        <v>12524</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02951294289919321</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01139940773701022</v>
+        <v>0.01155485805593083</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06474232958342999</v>
+        <v>0.06542479682818887</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>9</v>
@@ -3108,19 +3108,19 @@
         <v>9776</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4429</v>
+        <v>4420</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>18181</v>
+        <v>17440</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02822863525587341</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0127891045733621</v>
+        <v>0.01276260550197333</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05250018572517936</v>
+        <v>0.05036076017378004</v>
       </c>
     </row>
     <row r="10">
@@ -3150,19 +3150,19 @@
         <v>3232</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8216</v>
+        <v>9743</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01688481475453396</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005176838440389101</v>
+        <v>0.00518148450779307</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04292057030897794</v>
+        <v>0.05089909963241965</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -3171,19 +3171,19 @@
         <v>3232</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9412</v>
+        <v>8721</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00933326339418334</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002867542032979578</v>
+        <v>0.002859589195145318</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02717825015897665</v>
+        <v>0.02518232158335739</v>
       </c>
     </row>
     <row r="11">
@@ -3200,19 +3200,19 @@
         <v>6703</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2335</v>
+        <v>2248</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13474</v>
+        <v>13580</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04327795774226904</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01507670070625093</v>
+        <v>0.01451771920706861</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08699947366142576</v>
+        <v>0.08768168534502774</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -3221,19 +3221,19 @@
         <v>15073</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8932</v>
+        <v>8827</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>24994</v>
+        <v>26066</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07874546112711493</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04666402937218918</v>
+        <v>0.04611577014522374</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1305734129388493</v>
+        <v>0.1361698434194288</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>19</v>
@@ -3242,19 +3242,19 @@
         <v>21776</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>13832</v>
+        <v>14321</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>32688</v>
+        <v>34307</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06288300262059483</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03994346958361407</v>
+        <v>0.04135542362538763</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09439181037458383</v>
+        <v>0.09906718912721088</v>
       </c>
     </row>
     <row r="12">
@@ -3271,19 +3271,19 @@
         <v>144049</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>136160</v>
+        <v>136142</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>149629</v>
+        <v>149466</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9300807340214688</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8791407434542681</v>
+        <v>0.879026969453127</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9661111659579266</v>
+        <v>0.9650541862577602</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>156</v>
@@ -3292,19 +3292,19 @@
         <v>167465</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>156317</v>
+        <v>156396</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>175829</v>
+        <v>175720</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8748567812191579</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.816618710458814</v>
+        <v>0.8170318084150529</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9185511431397396</v>
+        <v>0.9179814903048198</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>284</v>
@@ -3313,19 +3313,19 @@
         <v>311514</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>298229</v>
+        <v>297696</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>322109</v>
+        <v>320473</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8995550987293485</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.861191167801873</v>
+        <v>0.859652873807396</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9301500113491789</v>
+        <v>0.925424480419886</v>
       </c>
     </row>
     <row r="13">
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5178</v>
+        <v>5802</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01024836164566847</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0499831731514951</v>
+        <v>0.05600055753677903</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -3438,19 +3438,19 @@
         <v>4549</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1122</v>
+        <v>1100</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10894</v>
+        <v>10779</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03226158015895417</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.007958225959194739</v>
+        <v>0.007803462626756373</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07725407880662058</v>
+        <v>0.07643788098942463</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -3459,19 +3459,19 @@
         <v>5611</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2042</v>
+        <v>2220</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12097</v>
+        <v>12607</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02293871542835799</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008347160346319335</v>
+        <v>0.009074758107900214</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04945141200368945</v>
+        <v>0.05153663999965444</v>
       </c>
     </row>
     <row r="15">
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9757</v>
+        <v>10966</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02189948502210644</v>
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09417673279154777</v>
+        <v>0.105847881835022</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>10862</v>
+        <v>10013</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0143939742641947</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.077025885389466</v>
+        <v>0.07100403470815156</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>14941</v>
+        <v>13180</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01757264899945955</v>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06107722255423496</v>
+        <v>0.05387973362473832</v>
       </c>
     </row>
     <row r="16">
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6860</v>
+        <v>6381</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02049915708276307</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06621603144487216</v>
+        <v>0.06158922051286179</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -3580,19 +3580,19 @@
         <v>4316</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10587</v>
+        <v>9803</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03060527232562035</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007858953509943188</v>
+        <v>0.00787866584474591</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07507493716110886</v>
+        <v>0.06951873179894645</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -3601,19 +3601,19 @@
         <v>6440</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3027</v>
+        <v>2236</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13138</v>
+        <v>12912</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02632521008464859</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0123754437000315</v>
+        <v>0.009141388590803934</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05370970034589018</v>
+        <v>0.0527835041315824</v>
       </c>
     </row>
     <row r="17">
@@ -3630,19 +3630,19 @@
         <v>98144</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>90240</v>
+        <v>89448</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>102458</v>
+        <v>101620</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.947352996249462</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8710566067395882</v>
+        <v>0.8634155701780557</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9889945688615173</v>
+        <v>0.9809066850251963</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>120</v>
@@ -3651,19 +3651,19 @@
         <v>130124</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>121517</v>
+        <v>121774</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>135636</v>
+        <v>135706</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9227391732512308</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8617087251462647</v>
+        <v>0.8635287101465681</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9618299312675626</v>
+        <v>0.9623252927793498</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>206</v>
@@ -3672,19 +3672,19 @@
         <v>228268</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>216856</v>
+        <v>219361</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>235742</v>
+        <v>235444</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9331634254875338</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8865128870491671</v>
+        <v>0.8967532484390166</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.963719959089221</v>
+        <v>0.9625016028467789</v>
       </c>
     </row>
     <row r="18">
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4757</v>
+        <v>4964</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.006138823562386502</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02943709691478355</v>
+        <v>0.03071739610679956</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -3797,19 +3797,19 @@
         <v>3291</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9832</v>
+        <v>9815</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01350077336405627</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004454133879364439</v>
+        <v>0.004432999049463722</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04033660601776748</v>
+        <v>0.04026770761513328</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -3818,19 +3818,19 @@
         <v>4283</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10716</v>
+        <v>9984</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0105656525528228</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002692106273089931</v>
+        <v>0.002667281467135334</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02643656388478355</v>
+        <v>0.02463034097847788</v>
       </c>
     </row>
     <row r="20">
@@ -3860,19 +3860,19 @@
         <v>4348</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1084</v>
+        <v>1091</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9867</v>
+        <v>10765</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01783904027317068</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004446130575002567</v>
+        <v>0.00447409354387195</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04047951939872126</v>
+        <v>0.04416484497767854</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -3881,19 +3881,19 @@
         <v>4348</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9905</v>
+        <v>10825</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01072682954520027</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00268963842798177</v>
+        <v>0.002692989216458209</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02443459747499635</v>
+        <v>0.02670330077484809</v>
       </c>
     </row>
     <row r="21">
@@ -3910,19 +3910,19 @@
         <v>3984</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>986</v>
+        <v>1006</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9809</v>
+        <v>9032</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02465196388733616</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.006102538728245781</v>
+        <v>0.00622471053624173</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06069432635660232</v>
+        <v>0.05588734264967475</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -3931,19 +3931,19 @@
         <v>11168</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5220</v>
+        <v>6058</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>19356</v>
+        <v>18648</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04581565101842462</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02141502433542507</v>
+        <v>0.02485396450897131</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07940736205592389</v>
+        <v>0.07650360944077329</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>15</v>
@@ -3952,19 +3952,19 @@
         <v>15152</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>8712</v>
+        <v>8963</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>23726</v>
+        <v>24022</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03737794358841705</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02149151291429882</v>
+        <v>0.02211175094336129</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05852908052783808</v>
+        <v>0.05925952861843609</v>
       </c>
     </row>
     <row r="22">
@@ -3981,19 +3981,19 @@
         <v>156637</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>150285</v>
+        <v>151157</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>159666</v>
+        <v>159700</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9692092125502774</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9299037923669236</v>
+        <v>0.9353040442984683</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9879497287335992</v>
+        <v>0.98816301734515</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>213</v>
@@ -4002,19 +4002,19 @@
         <v>224943</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>214295</v>
+        <v>215052</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>232316</v>
+        <v>232242</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9228445353443484</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8791573851817769</v>
+        <v>0.8822649718499938</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9530915515961366</v>
+        <v>0.9527874156898555</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>355</v>
@@ -4023,19 +4023,19 @@
         <v>381580</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>371872</v>
+        <v>369767</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>390257</v>
+        <v>389701</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9413295743135599</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.91738051521203</v>
+        <v>0.9121882085362749</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9627354160439645</v>
+        <v>0.9613630450964852</v>
       </c>
     </row>
     <row r="23">
@@ -4127,19 +4127,19 @@
         <v>7249</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3056</v>
+        <v>3102</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13613</v>
+        <v>13701</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01295215736473482</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.005459942879055296</v>
+        <v>0.005542209316306538</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02432489999664739</v>
+        <v>0.02448245978475737</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>13</v>
@@ -4148,19 +4148,19 @@
         <v>14546</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7911</v>
+        <v>8001</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23625</v>
+        <v>24326</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01957798869993289</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01064808272726705</v>
+        <v>0.0107685815226197</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03179725796568014</v>
+        <v>0.03274068024736009</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>20</v>
@@ -4169,19 +4169,19 @@
         <v>21794</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>13971</v>
+        <v>14171</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>34176</v>
+        <v>32616</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01673135400526041</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01072499060751303</v>
+        <v>0.01087881628067101</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02623681869041643</v>
+        <v>0.02503883740643558</v>
       </c>
     </row>
     <row r="25">
@@ -4198,19 +4198,19 @@
         <v>4353</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13081</v>
+        <v>13226</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.007777882856505802</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001855157322663692</v>
+        <v>0.001848024560781674</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02337347154135096</v>
+        <v>0.02363329329950233</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -4219,19 +4219,19 @@
         <v>14023</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7470</v>
+        <v>7458</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>23995</v>
+        <v>23555</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01887467796945085</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01005452335678054</v>
+        <v>0.01003738797245904</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03229588223635121</v>
+        <v>0.03170385414358924</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>15</v>
@@ -4240,19 +4240,19 @@
         <v>18376</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>10831</v>
+        <v>9719</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>30058</v>
+        <v>29712</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01410719742699042</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.008314523210005052</v>
+        <v>0.00746142072434081</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02307500119847972</v>
+        <v>0.02280941263137068</v>
       </c>
     </row>
     <row r="26">
@@ -4269,19 +4269,19 @@
         <v>14866</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8450</v>
+        <v>8357</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>24359</v>
+        <v>25706</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02656427670902785</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01509991251247086</v>
+        <v>0.01493308215868145</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04352664901295304</v>
+        <v>0.04593339760845548</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>34</v>
@@ -4290,19 +4290,19 @@
         <v>37005</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>26302</v>
+        <v>25931</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>51108</v>
+        <v>49849</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04980645580739147</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03540031055609286</v>
+        <v>0.03490127376150153</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06878806652361345</v>
+        <v>0.06709345618697879</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>48</v>
@@ -4311,19 +4311,19 @@
         <v>51871</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>38336</v>
+        <v>39040</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>67951</v>
+        <v>66716</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03982099284371408</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02942978810324765</v>
+        <v>0.0299702749198102</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05216544722743355</v>
+        <v>0.05121707626289786</v>
       </c>
     </row>
     <row r="27">
@@ -4340,19 +4340,19 @@
         <v>533169</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>521035</v>
+        <v>520565</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>542009</v>
+        <v>541850</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9527056830697316</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9310239410673773</v>
+        <v>0.9301838783279787</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9685014716999826</v>
+        <v>0.9682166446711699</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>635</v>
@@ -4361,19 +4361,19 @@
         <v>677401</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>659683</v>
+        <v>661364</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>692946</v>
+        <v>692557</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9117408775232247</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8878945611598312</v>
+        <v>0.8901563273364567</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9326632911350197</v>
+        <v>0.9321399935789141</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1115</v>
@@ -4382,19 +4382,19 @@
         <v>1210570</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1190651</v>
+        <v>1192444</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1228792</v>
+        <v>1228512</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9293404557240351</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9140491976453448</v>
+        <v>0.9154254175152896</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9433290030698179</v>
+        <v>0.9431143432013654</v>
       </c>
     </row>
     <row r="28">
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6426</v>
+        <v>6390</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01305144696493811</v>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04699689555815597</v>
+        <v>0.04673453971880368</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7195</v>
+        <v>8325</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0137708380749203</v>
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04149575912311786</v>
+        <v>0.0480118848935026</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -4768,19 +4768,19 @@
         <v>4172</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>900</v>
+        <v>1186</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9930</v>
+        <v>10124</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01345365864851273</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002902774819308857</v>
+        <v>0.003825805170957101</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03201966513950665</v>
+        <v>0.03264520835967336</v>
       </c>
     </row>
     <row r="5">
@@ -4797,19 +4797,19 @@
         <v>2645</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7187</v>
+        <v>6771</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01934280761988428</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.005901653417332176</v>
+        <v>0.005830462076448751</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05256468404000145</v>
+        <v>0.04951609503272937</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -4821,7 +4821,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3979</v>
+        <v>4891</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.005587195797986969</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02294947836153968</v>
+        <v>0.02820557787432781</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -4842,16 +4842,16 @@
         <v>971</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8552</v>
+        <v>9034</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01165204287076026</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003132411127991385</v>
+        <v>0.0031322232238342</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0275752234902996</v>
+        <v>0.02912948780286428</v>
       </c>
     </row>
     <row r="6">
@@ -4868,19 +4868,19 @@
         <v>2364</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7100</v>
+        <v>6389</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0172903064076706</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.00563441546410794</v>
+        <v>0.005650389032823445</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05192437458525907</v>
+        <v>0.0467237597930178</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -4889,19 +4889,19 @@
         <v>6940</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2421</v>
+        <v>2490</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13976</v>
+        <v>13880</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04002558414692595</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01396024200579362</v>
+        <v>0.01435788623479662</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08060581403123396</v>
+        <v>0.08004998194259313</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>9</v>
@@ -4910,19 +4910,19 @@
         <v>9304</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4365</v>
+        <v>4209</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>16818</v>
+        <v>16411</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0300016037939683</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01407576146381363</v>
+        <v>0.01357238667515477</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05422956592054363</v>
+        <v>0.05291592283582387</v>
       </c>
     </row>
     <row r="7">
@@ -4939,19 +4939,19 @@
         <v>129940</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>123981</v>
+        <v>124172</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>133435</v>
+        <v>133509</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.950315439007507</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9067316404625952</v>
+        <v>0.9081276739098859</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9758707274978542</v>
+        <v>0.9764144585637708</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>148</v>
@@ -4960,19 +4960,19 @@
         <v>163094</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>155269</v>
+        <v>155097</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>168425</v>
+        <v>168265</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9406163819801667</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8954845981206939</v>
+        <v>0.8944918939317942</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9713585094680416</v>
+        <v>0.9704392683382983</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>288</v>
@@ -4981,19 +4981,19 @@
         <v>293035</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>284924</v>
+        <v>283701</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>299759</v>
+        <v>300008</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9448926946867587</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9187381560248686</v>
+        <v>0.9147949857249301</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9665737969283591</v>
+        <v>0.967378866446061</v>
       </c>
     </row>
     <row r="8">
@@ -5088,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4070</v>
+        <v>4589</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.00552829074437696</v>
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02467654063112632</v>
+        <v>0.02782365137916345</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -5106,19 +5106,19 @@
         <v>4530</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1237</v>
+        <v>1260</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13575</v>
+        <v>13499</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0206674614496499</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.005644799591639233</v>
+        <v>0.00574864919999671</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06193979196963593</v>
+        <v>0.06159556766756392</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -5127,19 +5127,19 @@
         <v>5441</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1273</v>
+        <v>1262</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>14086</v>
+        <v>12830</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01416644204109974</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.003313338442802692</v>
+        <v>0.003285176306442271</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03667252115136754</v>
+        <v>0.03340227002230401</v>
       </c>
     </row>
     <row r="10">
@@ -5156,19 +5156,19 @@
         <v>2563</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7085</v>
+        <v>7438</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01554055512197822</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004964321103287398</v>
+        <v>0.004942977941027819</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04295672161975135</v>
+        <v>0.0450965622873193</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -5180,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5612</v>
+        <v>5990</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00541700042836351</v>
@@ -5189,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02560746212171116</v>
+        <v>0.02733245371030942</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -5198,19 +5198,19 @@
         <v>3750</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1172</v>
+        <v>903</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9296</v>
+        <v>9230</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009764228346454535</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003050783189812139</v>
+        <v>0.002351755408357749</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02420112107797047</v>
+        <v>0.0240295621684304</v>
       </c>
     </row>
     <row r="11">
@@ -5227,19 +5227,19 @@
         <v>2574</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6951</v>
+        <v>6973</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01560477013433998</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0</v>
+        <v>0.004971433982965357</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04214086035121695</v>
+        <v>0.04227835403736242</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -5248,19 +5248,19 @@
         <v>4014</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1308</v>
+        <v>1312</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10834</v>
+        <v>10739</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01831313114745954</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.005970327637698103</v>
+        <v>0.005986854169433237</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04943516724633044</v>
+        <v>0.04900193553187271</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -5269,19 +5269,19 @@
         <v>6587</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2681</v>
+        <v>2454</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>13883</v>
+        <v>13625</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01715011450312523</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.006980161678645983</v>
+        <v>0.006388543925041379</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03614431228032957</v>
+        <v>0.03547277273225562</v>
       </c>
     </row>
     <row r="12">
@@ -5298,19 +5298,19 @@
         <v>158892</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>153485</v>
+        <v>153263</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>162405</v>
+        <v>162371</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9633263839993048</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9305423062893691</v>
+        <v>0.9292014659487071</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9846265116052026</v>
+        <v>0.9844168683917823</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>175</v>
@@ -5319,19 +5319,19 @@
         <v>209433</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>200347</v>
+        <v>200536</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>215242</v>
+        <v>215186</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.955602406974527</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9141459920145391</v>
+        <v>0.9150078977262457</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9821081345641058</v>
+        <v>0.9818540479752883</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>343</v>
@@ -5340,19 +5340,19 @@
         <v>368325</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>358924</v>
+        <v>359097</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>375355</v>
+        <v>375321</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9589192151093205</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9344447773303605</v>
+        <v>0.9348939444021551</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9772233204090216</v>
+        <v>0.9771341473821276</v>
       </c>
     </row>
     <row r="13">
@@ -5460,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8109</v>
+        <v>9211</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01836035630061222</v>
@@ -5469,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05686538305447871</v>
+        <v>0.06459759021472095</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9883</v>
+        <v>9185</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0101622590966245</v>
@@ -5490,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03836258031557758</v>
+        <v>0.03565345969272276</v>
       </c>
     </row>
     <row r="15">
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4119</v>
+        <v>4043</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.007035567806672871</v>
@@ -5519,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03580744446719863</v>
+        <v>0.03514812034078318</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -5544,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>4112</v>
+        <v>4062</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.003141456942337638</v>
@@ -5553,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01596179042898439</v>
+        <v>0.01576655415251797</v>
       </c>
     </row>
     <row r="16">
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3682</v>
+        <v>4392</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007739257815738397</v>
@@ -5582,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03200571118130398</v>
+        <v>0.03817713525549292</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -5591,19 +5591,19 @@
         <v>13411</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7170</v>
+        <v>7272</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22949</v>
+        <v>21888</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09404979510274521</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05027939978220449</v>
+        <v>0.05099450803592677</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1609387370646608</v>
+        <v>0.1534941169939652</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -5612,19 +5612,19 @@
         <v>14301</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7858</v>
+        <v>8179</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24609</v>
+        <v>23921</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.055511208878049</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03049922132020836</v>
+        <v>0.03174600337375126</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09552156258111416</v>
+        <v>0.09285053430033741</v>
       </c>
     </row>
     <row r="17">
@@ -5641,7 +5641,7 @@
         <v>113335</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>109786</v>
+        <v>108960</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>115035</v>
@@ -5650,7 +5650,7 @@
         <v>0.9852251743775887</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9543680706062563</v>
+        <v>0.9471879139009985</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -5662,19 +5662,19 @@
         <v>126567</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>116652</v>
+        <v>117246</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>133641</v>
+        <v>133637</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8875898485966426</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.818056602805402</v>
+        <v>0.8222269814493327</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9372006327565336</v>
+        <v>0.9371694500665417</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>217</v>
@@ -5683,19 +5683,19 @@
         <v>239902</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>229811</v>
+        <v>229034</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>247310</v>
+        <v>246395</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9311850750829889</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8920167849124151</v>
+        <v>0.8890000826170016</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9599381739538522</v>
+        <v>0.9563881395053461</v>
       </c>
     </row>
     <row r="18">
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4873</v>
+        <v>4491</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.005141386155772486</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02790429548957151</v>
+        <v>0.02571977238428576</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -5858,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8616</v>
+        <v>7539</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01015963839050409</v>
@@ -5867,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0354884980441886</v>
+        <v>0.03105201709166501</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -5876,19 +5876,19 @@
         <v>3364</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>873</v>
+        <v>895</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9589</v>
+        <v>10625</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.008060262049963816</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002091279690567585</v>
+        <v>0.002145257950380423</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02297432183081231</v>
+        <v>0.02545610668873393</v>
       </c>
     </row>
     <row r="21">
@@ -5905,19 +5905,19 @@
         <v>4382</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1241</v>
+        <v>1247</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11683</v>
+        <v>11307</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02509546278900199</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.007104606887408952</v>
+        <v>0.007141249115467561</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06690559826632023</v>
+        <v>0.06475489582942044</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -5926,19 +5926,19 @@
         <v>7915</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2673</v>
+        <v>2695</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>16039</v>
+        <v>15884</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03260294056349865</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01101147610376684</v>
+        <v>0.01110061290465911</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06606406122441318</v>
+        <v>0.06542520089936997</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>10</v>
@@ -5947,19 +5947,19 @@
         <v>12298</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>6575</v>
+        <v>6396</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>22102</v>
+        <v>21538</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02946220142172588</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01575307932117536</v>
+        <v>0.01532442229781661</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0529520367997155</v>
+        <v>0.05160150896166941</v>
       </c>
     </row>
     <row r="22">
@@ -5976,19 +5976,19 @@
         <v>169338</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>162036</v>
+        <v>162356</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>172924</v>
+        <v>172582</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9697631510552255</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9279454325722709</v>
+        <v>0.9297791844911754</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9902977115523258</v>
+        <v>0.9883421878696548</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>190</v>
@@ -5997,19 +5997,19 @@
         <v>232399</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>223405</v>
+        <v>222952</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>238607</v>
+        <v>237671</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9572374210459973</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9201920300588045</v>
+        <v>0.918325914036614</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9828094246105258</v>
+        <v>0.9789528235970025</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>375</v>
@@ -6018,19 +6018,19 @@
         <v>401738</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>391246</v>
+        <v>391711</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>408505</v>
+        <v>408419</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9624775365283103</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9373413590416549</v>
+        <v>0.9384554395432633</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9786906676937773</v>
+        <v>0.9784827406990843</v>
       </c>
     </row>
     <row r="23">
@@ -6122,19 +6122,19 @@
         <v>2696</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7315</v>
+        <v>7194</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.004559933221110048</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.001501138794234005</v>
+        <v>0.001505000536003115</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01237109099482628</v>
+        <v>0.01216575661253567</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -6143,19 +6143,19 @@
         <v>9535</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3792</v>
+        <v>3820</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>18961</v>
+        <v>18432</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01225737631779873</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.004874687849334153</v>
+        <v>0.004911033130764361</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02437403184382414</v>
+        <v>0.02369368180412677</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>10</v>
@@ -6164,19 +6164,19 @@
         <v>12232</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5887</v>
+        <v>5871</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>21889</v>
+        <v>21042</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.008933159625005155</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.004299492208038225</v>
+        <v>0.004287464916410565</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01598634462095299</v>
+        <v>0.01536762345706017</v>
       </c>
     </row>
     <row r="25">
@@ -6193,19 +6193,19 @@
         <v>6915</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3348</v>
+        <v>3382</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13934</v>
+        <v>13187</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01169436586092348</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005661516940281761</v>
+        <v>0.005718775395997295</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02356462775475779</v>
+        <v>0.02229989872913645</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -6214,19 +6214,19 @@
         <v>4623</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1200</v>
+        <v>1230</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11520</v>
+        <v>11067</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.005942100240314753</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001542975916832179</v>
+        <v>0.001581231292109287</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0148087663937906</v>
+        <v>0.01422614973314902</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -6235,19 +6235,19 @@
         <v>11538</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6206</v>
+        <v>6451</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>20200</v>
+        <v>19722</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.008426272861952707</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004532490007872514</v>
+        <v>0.004711121135374276</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01475244449700017</v>
+        <v>0.01440331987214688</v>
       </c>
     </row>
     <row r="26">
@@ -6264,19 +6264,19 @@
         <v>10210</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5261</v>
+        <v>5230</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18103</v>
+        <v>18050</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01726697693006572</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008896234329207433</v>
+        <v>0.008844077248536149</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03061389740223028</v>
+        <v>0.03052483734291439</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>26</v>
@@ -6285,19 +6285,19 @@
         <v>32280</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>20204</v>
+        <v>21372</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>44555</v>
+        <v>47754</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04149484888232918</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02597193313208631</v>
+        <v>0.02747327512817228</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05727400950012623</v>
+        <v>0.06138550011110823</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>37</v>
@@ -6306,19 +6306,19 @@
         <v>42491</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>30769</v>
+        <v>30581</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>58206</v>
+        <v>58794</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03103180350960978</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02247104671473039</v>
+        <v>0.02233402627508918</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04250939526375974</v>
+        <v>0.04293854808057089</v>
       </c>
     </row>
     <row r="27">
@@ -6335,19 +6335,19 @@
         <v>571506</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>561227</v>
+        <v>561678</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>578752</v>
+        <v>578810</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9664787239879008</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9490960542616396</v>
+        <v>0.9498580257438826</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9787323135883803</v>
+        <v>0.9788306369316603</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>618</v>
@@ -6356,19 +6356,19 @@
         <v>731493</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>717683</v>
+        <v>713987</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>745472</v>
+        <v>744826</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9403056745595574</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9225536322148494</v>
+        <v>0.9178022200908545</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9582756033592416</v>
+        <v>0.9574443174385961</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1223</v>
@@ -6377,19 +6377,19 @@
         <v>1302999</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1284761</v>
+        <v>1285667</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1318883</v>
+        <v>1318480</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9516087640034323</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9382889025375892</v>
+        <v>0.9389512079832389</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9632093116541243</v>
+        <v>0.9629149706512818</v>
       </c>
     </row>
     <row r="28">
@@ -6721,19 +6721,19 @@
         <v>1027</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2802</v>
+        <v>2840</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006309479490359675</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00203925671223255</v>
+        <v>0.0020496075856743</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01721007693704659</v>
+        <v>0.01744431067648721</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -6742,19 +6742,19 @@
         <v>1117</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3374</v>
+        <v>3386</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005858189055071147</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001477476722804751</v>
+        <v>0.001486326048331045</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01769512079265366</v>
+        <v>0.01775937773721014</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -6763,19 +6763,19 @@
         <v>2144</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4641</v>
+        <v>4565</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006066043268495523</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002509691871532602</v>
+        <v>0.002541906298105623</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01313018459672677</v>
+        <v>0.01291394159481337</v>
       </c>
     </row>
     <row r="5">
@@ -6805,19 +6805,19 @@
         <v>2671</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>937</v>
+        <v>1059</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6221</v>
+        <v>5838</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01400860674468239</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.004914839703678399</v>
+        <v>0.005553248906519631</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03262318153483384</v>
+        <v>0.03061579897339692</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -6826,19 +6826,19 @@
         <v>2671</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>944</v>
+        <v>811</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5998</v>
+        <v>6079</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.007556557890099909</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002670505800210166</v>
+        <v>0.002292905540377328</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01696730044443702</v>
+        <v>0.01719664228516218</v>
       </c>
     </row>
     <row r="6">
@@ -6855,19 +6855,19 @@
         <v>3714</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1401</v>
+        <v>1428</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8197</v>
+        <v>7956</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02281144473709849</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.008603430458915767</v>
+        <v>0.008767807625742372</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05034651339987832</v>
+        <v>0.04886568586510224</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>28</v>
@@ -6876,19 +6876,19 @@
         <v>11006</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7649</v>
+        <v>7497</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15991</v>
+        <v>15836</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05772084835782433</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04011116593847887</v>
+        <v>0.0393155014140617</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08386353343111509</v>
+        <v>0.08304830760932691</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>34</v>
@@ -6897,19 +6897,19 @@
         <v>14720</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10043</v>
+        <v>10244</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>20902</v>
+        <v>20815</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04164236305586803</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02841013188158147</v>
+        <v>0.02897982442825726</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05913009057488987</v>
+        <v>0.05888401992113508</v>
       </c>
     </row>
     <row r="7">
@@ -6926,19 +6926,19 @@
         <v>158072</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>153510</v>
+        <v>153559</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>160650</v>
+        <v>160607</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9708790757725417</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9428630538159865</v>
+        <v>0.9431598880062256</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9867129781565646</v>
+        <v>0.9864523428161558</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>409</v>
@@ -6947,19 +6947,19 @@
         <v>175889</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>170673</v>
+        <v>169790</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>180076</v>
+        <v>180396</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.922412355842422</v>
+        <v>0.9224123558424222</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8950563837677433</v>
+        <v>0.8904243819945077</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9443676190570952</v>
+        <v>0.9460460231743109</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>652</v>
@@ -6968,19 +6968,19 @@
         <v>333961</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>327791</v>
+        <v>327765</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>339373</v>
+        <v>339642</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.9447350357855364</v>
+        <v>0.9447350357855365</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9272808887740309</v>
+        <v>0.9272066875359665</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9600461118801896</v>
+        <v>0.9608071086933055</v>
       </c>
     </row>
     <row r="8">
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3423</v>
+        <v>3834</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.006095134461844299</v>
@@ -7084,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01921073064732566</v>
+        <v>0.02151633424463742</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -7093,19 +7093,19 @@
         <v>4455</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1866</v>
+        <v>2083</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8154</v>
+        <v>8230</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01840747960640321</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.007709308333729997</v>
+        <v>0.008606785008158242</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03368938971188667</v>
+        <v>0.03400461291977335</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -7114,19 +7114,19 @@
         <v>5542</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2912</v>
+        <v>2970</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9861</v>
+        <v>10150</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01318644444686667</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0069290498587549</v>
+        <v>0.007066349010590546</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02346588807804168</v>
+        <v>0.02415153578043396</v>
       </c>
     </row>
     <row r="10">
@@ -7146,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6366</v>
+        <v>5648</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0105029190509399</v>
@@ -7155,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03572160686686066</v>
+        <v>0.03169638561044304</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -7164,19 +7164,19 @@
         <v>2516</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6246</v>
+        <v>6235</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01039355218388157</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002482222755883361</v>
+        <v>0.002474375945682242</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02580428204636376</v>
+        <v>0.02575851457091421</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -7185,19 +7185,19 @@
         <v>4387</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9060</v>
+        <v>8919</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01043992907240246</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003692065118963736</v>
+        <v>0.003689633955061546</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02156007074465626</v>
+        <v>0.02122456255384834</v>
       </c>
     </row>
     <row r="11">
@@ -7214,19 +7214,19 @@
         <v>4665</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2143</v>
+        <v>2323</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8920</v>
+        <v>9447</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02617508268980815</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01202316859696935</v>
+        <v>0.01303470158167752</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05005586769327665</v>
+        <v>0.05301241460948046</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>20</v>
@@ -7235,19 +7235,19 @@
         <v>11216</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7290</v>
+        <v>6911</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17119</v>
+        <v>17330</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0463382811896712</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03011841649139775</v>
+        <v>0.02855168889605093</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07072888152717881</v>
+        <v>0.0715992733501839</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>28</v>
@@ -7256,19 +7256,19 @@
         <v>15880</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10767</v>
+        <v>11149</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>23112</v>
+        <v>24227</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.03778810110127255</v>
+        <v>0.03778810110127254</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0256217048612375</v>
+        <v>0.02653097565660952</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05499697101325874</v>
+        <v>0.0576491200655647</v>
       </c>
     </row>
     <row r="12">
@@ -7285,19 +7285,19 @@
         <v>170582</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>164462</v>
+        <v>165613</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>174129</v>
+        <v>174182</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9572268637974076</v>
+        <v>0.9572268637974077</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9228875217986533</v>
+        <v>0.9293430234334984</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9771308498505169</v>
+        <v>0.9774305390498154</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>416</v>
@@ -7306,19 +7306,19 @@
         <v>223853</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>216781</v>
+        <v>216663</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>228679</v>
+        <v>229501</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.924860687020044</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8956429097574077</v>
+        <v>0.8951552750416288</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9447978244858743</v>
+        <v>0.948194819326297</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>658</v>
@@ -7327,19 +7327,19 @@
         <v>394434</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>385334</v>
+        <v>384524</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>400889</v>
+        <v>401297</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9385855253794584</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9169305519931437</v>
+        <v>0.9150040999853043</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9539453043717472</v>
+        <v>0.9549155175270426</v>
       </c>
     </row>
     <row r="13">
@@ -7444,19 +7444,19 @@
         <v>3268</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>895</v>
+        <v>600</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8396</v>
+        <v>8104</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01868205294432296</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.005116368279272274</v>
+        <v>0.003430934928729585</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04800115207592431</v>
+        <v>0.04633039656858129</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -7465,19 +7465,19 @@
         <v>3268</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>894</v>
+        <v>1180</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8258</v>
+        <v>9671</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.009763138523342683</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002669930771838658</v>
+        <v>0.003526781007606782</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02467437363493438</v>
+        <v>0.02889638460818946</v>
       </c>
     </row>
     <row r="15">
@@ -7510,16 +7510,16 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4320</v>
+        <v>4378</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.007123115297313825</v>
+        <v>0.007123115297313826</v>
       </c>
       <c r="O15" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02469836716899413</v>
+        <v>0.0250284956074032</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>3841</v>
+        <v>4275</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.003722501032015808</v>
@@ -7540,7 +7540,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01147487866409553</v>
+        <v>0.01277159966652689</v>
       </c>
     </row>
     <row r="16">
@@ -7557,19 +7557,19 @@
         <v>4352</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1619</v>
+        <v>1593</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9854</v>
+        <v>9261</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02723889787226125</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01013006790434785</v>
+        <v>0.009972680932079392</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06167250264782598</v>
+        <v>0.05795871460815186</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -7578,19 +7578,19 @@
         <v>6874</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3664</v>
+        <v>3730</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11761</v>
+        <v>11319</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03930255466363376</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02094873982310198</v>
+        <v>0.02132567908189857</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06723800015728455</v>
+        <v>0.06471410368350262</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -7599,19 +7599,19 @@
         <v>11227</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6936</v>
+        <v>6763</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17451</v>
+        <v>17569</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03354329882344385</v>
+        <v>0.03354329882344386</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02072466937324855</v>
+        <v>0.02020711014084854</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05213996976356777</v>
+        <v>0.05249337918169025</v>
       </c>
     </row>
     <row r="17">
@@ -7628,19 +7628,19 @@
         <v>155433</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>149931</v>
+        <v>150524</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>158166</v>
+        <v>158192</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9727611021277386</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9383274973521739</v>
+        <v>0.9420412853918482</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9898699320956523</v>
+        <v>0.9900273190679205</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>271</v>
@@ -7649,19 +7649,19 @@
         <v>163521</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>157489</v>
+        <v>157630</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>167986</v>
+        <v>168106</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9348922770947294</v>
+        <v>0.9348922770947296</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9004043423536778</v>
+        <v>0.9012099501340837</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9604180601364828</v>
+        <v>0.961107358457346</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>459</v>
@@ -7670,19 +7670,19 @@
         <v>318954</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>311393</v>
+        <v>311550</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>324352</v>
+        <v>324916</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9529710616211976</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9303814592230224</v>
+        <v>0.9308511037605328</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9691009057146505</v>
+        <v>0.9707849327922867</v>
       </c>
     </row>
     <row r="18">
@@ -7787,19 +7787,19 @@
         <v>3155</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6743</v>
+        <v>7451</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.01068054207339262</v>
+        <v>0.01068054207339261</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004388560460711697</v>
+        <v>0.004359237251801712</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02282983784407133</v>
+        <v>0.02522597557283475</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -7808,19 +7808,19 @@
         <v>3155</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1059</v>
+        <v>1066</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6633</v>
+        <v>6472</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.006180112313273813</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002074867206571149</v>
+        <v>0.002089019665423944</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01299492985127445</v>
+        <v>0.01267974660587419</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>1963</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5237</v>
+        <v>5650</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.009124476653393511</v>
+        <v>0.009124476653393512</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002981038779396799</v>
+        <v>0.002992170988361065</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02435001549737223</v>
+        <v>0.02627045691974231</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -7858,19 +7858,19 @@
         <v>1755</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4631</v>
+        <v>4926</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.005941994040143326</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001522400055239404</v>
+        <v>0.001531758250652497</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01567826908907039</v>
+        <v>0.01667695314251197</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -7879,19 +7879,19 @@
         <v>3718</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1301</v>
+        <v>1320</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7558</v>
+        <v>8044</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.007282987724294632</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002549105933334541</v>
+        <v>0.002585532960062601</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01480562632848274</v>
+        <v>0.01575836205140194</v>
       </c>
     </row>
     <row r="21">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3392</v>
+        <v>3070</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.002835485766871451</v>
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01577186189042524</v>
+        <v>0.01427087800715662</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>19</v>
@@ -7929,19 +7929,19 @@
         <v>12311</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7577</v>
+        <v>7295</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>19698</v>
+        <v>19335</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.04168172008686136</v>
+        <v>0.04168172008686135</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02565227935759054</v>
+        <v>0.02469973745321155</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06668969778160469</v>
+        <v>0.06546162449831748</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>20</v>
@@ -7950,19 +7950,19 @@
         <v>12921</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>7760</v>
+        <v>8453</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>21015</v>
+        <v>20580</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02531319236599271</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01520223275583405</v>
+        <v>0.01656048291363845</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04117009436033085</v>
+        <v>0.04031631229751478</v>
       </c>
     </row>
     <row r="22">
@@ -7979,19 +7979,19 @@
         <v>212517</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>208720</v>
+        <v>209199</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>214437</v>
+        <v>214439</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.988040037579735</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9703870979542571</v>
+        <v>0.9726162632458639</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.996970861787839</v>
+        <v>0.9969780233720468</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>496</v>
@@ -8000,19 +8000,19 @@
         <v>278145</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>270308</v>
+        <v>270712</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>283793</v>
+        <v>284299</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9416957437996029</v>
+        <v>0.9416957437996026</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9151635799217348</v>
+        <v>0.9165300189376638</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.960817030713528</v>
+        <v>0.9625310603781908</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>819</v>
@@ -8021,19 +8021,19 @@
         <v>490660</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>482234</v>
+        <v>481817</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>497528</v>
+        <v>496847</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9612237075964388</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9447165534545687</v>
+        <v>0.9438990049051305</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9746764810245138</v>
+        <v>0.973343165553484</v>
       </c>
     </row>
     <row r="23">
@@ -8125,19 +8125,19 @@
         <v>2113</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>686</v>
+        <v>821</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5188</v>
+        <v>5260</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.002952184826033984</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0009587135806646965</v>
+        <v>0.001146600510015586</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.00724757311385981</v>
+        <v>0.007348087766104447</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>22</v>
@@ -8146,19 +8146,19 @@
         <v>11995</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7719</v>
+        <v>7199</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>18908</v>
+        <v>18405</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0132832230269884</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.008547932533744753</v>
+        <v>0.007971943280452089</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02093917705470322</v>
+        <v>0.02038240027525154</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>27</v>
@@ -8167,19 +8167,19 @@
         <v>14108</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>9334</v>
+        <v>9170</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>21168</v>
+        <v>21056</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.008714727516435632</v>
+        <v>0.008714727516435634</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.005765594418820302</v>
+        <v>0.005664477396789305</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01307561756601816</v>
+        <v>0.01300624298936715</v>
       </c>
     </row>
     <row r="25">
@@ -8196,19 +8196,19 @@
         <v>3834</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8156</v>
+        <v>9141</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.005355896385832363</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001833715567502352</v>
+        <v>0.001827608283277121</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01139241777483281</v>
+        <v>0.01276883864633741</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -8217,19 +8217,19 @@
         <v>8188</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4673</v>
+        <v>4509</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13524</v>
+        <v>13232</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.009067378329466429</v>
+        <v>0.009067378329466427</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.005175017253210962</v>
+        <v>0.004993682762566608</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0149764816755902</v>
+        <v>0.01465288393398393</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>19</v>
@@ -8238,19 +8238,19 @@
         <v>12022</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7443</v>
+        <v>7525</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>19160</v>
+        <v>18137</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.0074261213456888</v>
+        <v>0.007426121345688801</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004597810700363536</v>
+        <v>0.004648160188658488</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01183538283140471</v>
+        <v>0.01120322485115131</v>
       </c>
     </row>
     <row r="26">
@@ -8267,19 +8267,19 @@
         <v>13341</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8249</v>
+        <v>8284</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>20718</v>
+        <v>20839</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.01863517177070092</v>
+        <v>0.01863517177070093</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01152324691380311</v>
+        <v>0.01157146143000975</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02894045913476982</v>
+        <v>0.02910931479109743</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>78</v>
@@ -8288,19 +8288,19 @@
         <v>41408</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>33003</v>
+        <v>33006</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>52130</v>
+        <v>52551</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.04585596993097376</v>
+        <v>0.04585596993097375</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03654787313596549</v>
+        <v>0.03655177534022943</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05772943294421884</v>
+        <v>0.05819635079907467</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>98</v>
@@ -8309,19 +8309,19 @@
         <v>54749</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>44494</v>
+        <v>45112</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>66492</v>
+        <v>66620</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.03381864204873043</v>
+        <v>0.03381864204873044</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02748414691771065</v>
+        <v>0.02786573546363482</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04107236917008698</v>
+        <v>0.04115147136424552</v>
       </c>
     </row>
     <row r="27">
@@ -8338,19 +8338,19 @@
         <v>696602</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>687534</v>
+        <v>688406</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>702875</v>
+        <v>703003</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9730567470174328</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9603906164467436</v>
+        <v>0.9616080975651708</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9818191399979208</v>
+        <v>0.9819991493252164</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1592</v>
@@ -8359,19 +8359,19 @@
         <v>841408</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>828453</v>
+        <v>828870</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>851823</v>
+        <v>852695</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9317934287125714</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9174468410326845</v>
+        <v>0.9179092873211283</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9433280317767794</v>
+        <v>0.9442929806974099</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2588</v>
@@ -8380,19 +8380,19 @@
         <v>1538009</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1522726</v>
+        <v>1523478</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1550773</v>
+        <v>1549437</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9500405090891452</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9405999576597505</v>
+        <v>0.941064326054369</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9579248408502923</v>
+        <v>0.9570997723735772</v>
       </c>
     </row>
     <row r="28">
